--- a/Tables_eng_CHORUS.xlsx
+++ b/Tables_eng_CHORUS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,8 +23,11 @@
     <definedName function="false" hidden="false" name="ProposedYr5" vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" name="PropsedYr3" vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Anticipated non-NCE Funding'!$A$1:$G$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Anticipated non-NCE Funding'!$A$1:$G$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">Partners!$A$1:$I$103</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">Partners!$A$1:$I$103</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Titles" vbProcedure="false">Partners!$4:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Titles_0" vbProcedure="false">Partners!$4:$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -51,7 +54,7 @@
     <t>Network:</t>
   </si>
   <si>
-    <t>CHORUS:  Collaborative Heterogenous Observation, Reasoning and Unifying System</t>
+    <t>CHORUS:  Collaborative Heterogeneous Observation, Reasoning and Unifying System</t>
   </si>
   <si>
     <t>Table 1</t>
@@ -1546,7 +1549,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4717,8 +4720,8 @@
   </sheetPr>
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
